--- a/todos_unidos_over25.xlsx
+++ b/todos_unidos_over25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21df80ec97692de0/curso python/MENTORIA LEANDRO/PROFIT_TABELA_DINAMICA/OVER25/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21df80ec97692de0/Documentos/GitHub/ARKAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_5415C3E43AC3CE344D2C4C29C5AA01F1797AB1C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD9B300-41A9-49A1-BF52-C8F95232ECCB}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_5415C3E43AC3CE344D2C4C29C5AA01F1797AB1C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8A42444-4B22-4EDE-9333-3C85DA3A3B7C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="721">
   <si>
     <t>Date</t>
   </si>
@@ -2157,6 +2157,45 @@
   </si>
   <si>
     <t>Zamalek</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>Egyptian Second Division B</t>
+  </si>
+  <si>
+    <t>Cascada SC</t>
+  </si>
+  <si>
+    <t>El Alameen</t>
+  </si>
+  <si>
+    <t>Hungarian NB II</t>
+  </si>
+  <si>
+    <t>Honved</t>
+  </si>
+  <si>
+    <t>Fehervar</t>
+  </si>
+  <si>
+    <t>Renate</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>Chilean Primera Division</t>
+  </si>
+  <si>
+    <t>Everton De Vina</t>
+  </si>
+  <si>
+    <t>Union La Calera</t>
   </si>
 </sst>
 </file>
@@ -2249,10 +2288,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2542,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O311"/>
+  <dimension ref="A1:O316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="N303" sqref="N303:O311"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="N305" sqref="N305:N316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17790,6 +17825,251 @@
         <v>1</v>
       </c>
     </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>708</v>
+      </c>
+      <c r="B312" t="s">
+        <v>100</v>
+      </c>
+      <c r="C312" t="s">
+        <v>709</v>
+      </c>
+      <c r="D312" t="s">
+        <v>710</v>
+      </c>
+      <c r="E312" t="s">
+        <v>711</v>
+      </c>
+      <c r="F312">
+        <v>2.08</v>
+      </c>
+      <c r="G312">
+        <v>4.2</v>
+      </c>
+      <c r="H312">
+        <v>2.84</v>
+      </c>
+      <c r="I312">
+        <v>2.42</v>
+      </c>
+      <c r="J312" t="s">
+        <v>670</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312">
+        <f t="shared" ref="N312:N316" si="14">IF(M312=1,0.935*(I312-1),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="O312">
+        <f t="shared" ref="O312:O316" si="15">K312+L312</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>708</v>
+      </c>
+      <c r="B313" t="s">
+        <v>98</v>
+      </c>
+      <c r="C313" t="s">
+        <v>712</v>
+      </c>
+      <c r="D313" t="s">
+        <v>713</v>
+      </c>
+      <c r="E313" t="s">
+        <v>714</v>
+      </c>
+      <c r="F313">
+        <v>1.71</v>
+      </c>
+      <c r="G313">
+        <v>6</v>
+      </c>
+      <c r="H313">
+        <v>3.65</v>
+      </c>
+      <c r="I313">
+        <v>2.08</v>
+      </c>
+      <c r="J313" t="s">
+        <v>670</v>
+      </c>
+      <c r="K313">
+        <v>2</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+      <c r="M313">
+        <v>1</v>
+      </c>
+      <c r="N313">
+        <f t="shared" si="14"/>
+        <v>1.0098</v>
+      </c>
+      <c r="O313">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>708</v>
+      </c>
+      <c r="B314" t="s">
+        <v>115</v>
+      </c>
+      <c r="C314" t="s">
+        <v>149</v>
+      </c>
+      <c r="D314" t="s">
+        <v>715</v>
+      </c>
+      <c r="E314" t="s">
+        <v>489</v>
+      </c>
+      <c r="F314">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G314">
+        <v>4</v>
+      </c>
+      <c r="H314">
+        <v>2.96</v>
+      </c>
+      <c r="I314">
+        <v>2.64</v>
+      </c>
+      <c r="J314" t="s">
+        <v>670</v>
+      </c>
+      <c r="K314">
+        <v>1</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="O314">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>708</v>
+      </c>
+      <c r="B315" t="s">
+        <v>89</v>
+      </c>
+      <c r="C315" t="s">
+        <v>180</v>
+      </c>
+      <c r="D315" t="s">
+        <v>532</v>
+      </c>
+      <c r="E315" t="s">
+        <v>716</v>
+      </c>
+      <c r="F315">
+        <v>1.89</v>
+      </c>
+      <c r="G315">
+        <v>5.2</v>
+      </c>
+      <c r="H315">
+        <v>3.55</v>
+      </c>
+      <c r="I315">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J315" t="s">
+        <v>670</v>
+      </c>
+      <c r="K315">
+        <v>3</v>
+      </c>
+      <c r="L315">
+        <v>0</v>
+      </c>
+      <c r="M315">
+        <v>1</v>
+      </c>
+      <c r="N315">
+        <f t="shared" si="14"/>
+        <v>1.1967999999999999</v>
+      </c>
+      <c r="O315">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>708</v>
+      </c>
+      <c r="B316" t="s">
+        <v>717</v>
+      </c>
+      <c r="C316" t="s">
+        <v>718</v>
+      </c>
+      <c r="D316" t="s">
+        <v>719</v>
+      </c>
+      <c r="E316" t="s">
+        <v>720</v>
+      </c>
+      <c r="F316">
+        <v>1.92</v>
+      </c>
+      <c r="G316">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H316">
+        <v>3.55</v>
+      </c>
+      <c r="I316">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J316" t="s">
+        <v>670</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
+      </c>
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="O316">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O289">
     <sortCondition ref="A1:A289"/>
